--- a/medicine/Psychotrope/Agenais_(IGP)/Agenais_(IGP).xlsx
+++ b/medicine/Psychotrope/Agenais_(IGP)/Agenais_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’agenais, appelé vin de pays de l'Agenais jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays), produit sur presque la totalité du Lot-et-Garonne mis à part les communes produisant le thézac-perricard.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyen Âge
-Période moderne
-Période contemporaine
-Vin de pays par le décret du 18 janvier 1985 paru au Journal officiel le 23 janvier 1985.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vin de pays par le décret du 18 janvier 1985 paru au Journal officiel le 23 janvier 1985.
 </t>
         </is>
       </c>
@@ -547,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,11 +591,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Climatologie
-Le Lot-et-Garonne se situe dans la zone climatique océanique. Mais, il s'agit d'un climat océanique dégradé avec une amplitude thermique annuelle plus marquée et des précipitations moins abondantes que sur le littoral aquitain. De plus, à la différence du littoral, le printemps (surtout à sa fin) y est plus arrosé que l'hiver. Les vents dominants sont d'ouest sans être exclusifs[3].
-Source : Infoclimat[4]
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lot-et-Garonne se situe dans la zone climatique océanique. Mais, il s'agit d'un climat océanique dégradé avec une amplitude thermique annuelle plus marquée et des précipitations moins abondantes que sur le littoral aquitain. De plus, à la différence du littoral, le printemps (surtout à sa fin) y est plus arrosé que l'hiver. Les vents dominants sont d'ouest sans être exclusifs.
+Source : Infoclimat
 </t>
         </is>
       </c>
@@ -609,20 +629,126 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présentation
-Le vin de pays de l’Agenais est issu de vendanges récoltées dans le département de Lot-et-Garonne, à l’exclusion des communes qui composent la zone de production du vin de pays de Thézac-Perricard : Bourlens, Courbiac, Masquières, Montayral, Thézac, Tournon-d’Agenais.
-Encépagement
-Cépages noirs : abouriou N, alicante H. Bouschet, bouchalès, cabernet franc, cabernet-sauvignon, cot, fer servadou, gamay, jurançon noir, semebat (N), syrah, merlot et tannat, arinarnoa (N), egiodola (N), ségalin (N).
-Cépages blancs : listan, mauzac, ondenc, sémillon, sauvignon et ugni blanc, muscadelle, arriloba (B), baroque (B), chardonnay (B), chasan (B), colombard (B), gros manseng (B), liliorila (B), perdea (B) et petit manseng (B).
-Méthodes culturales
-Les rouges et rosés sont produits dans la limite d’un rendement de 85 hl/ha. Il ne peut dépasser 95 hl/ha. Les blancs doivent avoir un rendement de 90 hl/ha. Il ne peut dépasser 100 hl/a.
-Vinification et élevage
-Chaque cépage est vinifié séparément et le nom du cépage doit figurer sur chaque contenant.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin de pays de l’Agenais est issu de vendanges récoltées dans le département de Lot-et-Garonne, à l’exclusion des communes qui composent la zone de production du vin de pays de Thézac-Perricard : Bourlens, Courbiac, Masquières, Montayral, Thézac, Tournon-d’Agenais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cépages noirs : abouriou N, alicante H. Bouschet, bouchalès, cabernet franc, cabernet-sauvignon, cot, fer servadou, gamay, jurançon noir, semebat (N), syrah, merlot et tannat, arinarnoa (N), egiodola (N), ségalin (N).
+Cépages blancs : listan, mauzac, ondenc, sémillon, sauvignon et ugni blanc, muscadelle, arriloba (B), baroque (B), chardonnay (B), chasan (B), colombard (B), gros manseng (B), liliorila (B), perdea (B) et petit manseng (B).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges et rosés sont produits dans la limite d’un rendement de 85 hl/ha. Il ne peut dépasser 95 hl/ha. Les blancs doivent avoir un rendement de 90 hl/ha. Il ne peut dépasser 100 hl/a.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agenais_(IGP)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque cépage est vinifié séparément et le nom du cépage doit figurer sur chaque contenant.
 Le nom de deux cépages peut compléter cette dénomination si avant l'assemblage des vins issus de ces deux cépages, chaque vin a fait l'objet d'un agrément avec indication de cépage.
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation</t>
+</t>
         </is>
       </c>
     </row>
